--- a/loaded_influencer_data/m.ilk.iss/m.ilk.iss_video.xlsx
+++ b/loaded_influencer_data/m.ilk.iss/m.ilk.iss_video.xlsx
@@ -512,48 +512,44 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603</v>
+        <v>1638</v>
       </c>
       <c r="C2" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2부 운반!🥰 드디어 이번 주에 글을 올릴 시간이 😮‍💨 기말고사는 나를 지치게 했다 ㅋㅋ @kiokii.official #kiokiiand #haul</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.35558328134747</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.170305676855897</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.185277604491578</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.060511540860886</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -562,48 +558,44 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1783</v>
+        <v>1793</v>
       </c>
       <c r="C3" t="n">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>운반 파트 1! 🩷 파트 2가 곧 출시됩니다. 비디오가 너무 길어서 죄송합니다🥹 포장을 풀어야 할 큰 가방이 세 개 있으니 계속 지켜봐주세요!🫶🏼 제품: (다른 시리즈 및 컬렉션에서) ######</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16.04038137969714</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.42344363432417</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.616937745372967</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.570386988222098</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2024-12-14</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -615,45 +607,41 @@
         <v>1110</v>
       </c>
       <c r="C4" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Thank you sm for the goodies @Kiokii.official 🩷 #kiokiiand #torriden #goodal #florette #zerocleansingbalm #biodance #beautyofjoseon #gluefreeeyelashes #kbeauty #skincare #asianbeauty #beauty #ugccreator #prpackage #asmr</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>20.81081081081081</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0990990990991</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.711711711711712</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.801801801801802</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2024-12-10</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -662,48 +650,44 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="C5" t="n">
-        <v>4040</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>📍 크로스론 밀스 캘거리에 위치한 새로운 모습의 첫 번째 모습🥰 라인업은 그만한 가치가 있었습니다! 와서 확인해 보세요!</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.72085889570552</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.39263803680982</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3282208588957055</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.061349693251534</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2024-12-8</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -712,48 +696,44 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="C6" t="n">
-        <v>1188</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>가장 예쁜 단종 형광펜을 찾았습니다. 🩷🎀@Too Faced #beauty #beautytok #toofaced #highlighter #makeup</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10.36363636363636</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9.818181818181818</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5454545454545455</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.148760330578512</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2024-12-2</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -762,48 +742,44 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C7" t="n">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>또 다른 Dasique 운반! 난 그냥 사랑해 🥹🩷@dasique #makeup #asianmakeup #dasique #dasiquemakeup #skincare</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22.18148487626031</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.44821264894592</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7332722273143905</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.544149098686221</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2024-11-22</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -812,48 +788,44 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2086</v>
+        <v>2097</v>
       </c>
       <c r="C8" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>곧 개봉🫶🏼감사합니다@kiokiicanada #makeup #skincare #asianmakeup #kiokiiand #flowerknows #clio</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>20.42186001917545</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>18.12080536912752</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.301054650047939</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.965484180249281</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024-11-16</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -862,48 +834,44 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4364</v>
+        <v>4382</v>
       </c>
       <c r="C9" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>그녀는 너무 귀엽다 🥹#mymelody #sanrio #sanriocore #miniso #haul #pink #fyppppppppppppppppppppppp #review</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10.38038496791934</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.945004582951421</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4353803849679193</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.260311640696609</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -915,45 +883,41 @@
         <v>1094</v>
       </c>
       <c r="C10" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dasique Haul! (마지막에 작은 고양이 서프라이즈😉) #makeup #beautytok #kbeauty #asianmakeup #koreanmakeup</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10.60329067641682</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10.14625228519196</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4570383912248629</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9140767824497258</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024-11-9</t>
-        </is>
-      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
